--- a/Scripts/parameters_output_27454.xlsx
+++ b/Scripts/parameters_output_27454.xlsx
@@ -658,16 +658,16 @@
         <v>19</v>
       </c>
       <c r="G7">
-        <v>5592736.984621348</v>
+        <v>3416101.118973895</v>
       </c>
       <c r="H7">
-        <v>48404.10383449614</v>
+        <v>63558.5869918237</v>
       </c>
       <c r="I7">
-        <v>6.46</v>
+        <v>6.56</v>
       </c>
       <c r="J7">
-        <v>361355.3521744795</v>
+        <v>224260.5402491493</v>
       </c>
     </row>
     <row r="8" spans="1:10">
